--- a/formats/excel/Formats RHA 18.xlsx
+++ b/formats/excel/Formats RHA 18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
   <si>
     <t>libelle</t>
   </si>
@@ -319,7 +319,7 @@
     <t>AE</t>
   </si>
   <si>
-    <t>Dépendance à l ’habillage°</t>
+    <t>Dépendance à l’habillage ou à la toilette</t>
   </si>
   <si>
     <t>HABILLAGE</t>
@@ -386,6 +386,12 @@
   </si>
   <si>
     <t>LISP</t>
+  </si>
+  <si>
+    <t>Type unité spécifique</t>
+  </si>
+  <si>
+    <t>TYPEUMSPE</t>
   </si>
   <si>
     <t>Score RR</t>
@@ -402,12 +408,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -431,13 +444,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -446,8 +452,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,19 +475,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -485,13 +498,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -499,7 +505,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,9 +550,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,41 +572,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -582,43 +595,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,7 +745,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,121 +763,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,15 +807,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -814,6 +818,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,11 +846,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,170 +872,165 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1332,14 +1346,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomRight" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1436,7 +1450,7 @@
         <v>15</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F62" si="0">C4+D4-D5</f>
+        <f t="shared" ref="F4:F63" si="0">C4+D4-D5</f>
         <v>0</v>
       </c>
       <c r="G4" t="s">
@@ -2773,7 +2787,7 @@
       <c r="E60">
         <v>167</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2789,15 +2803,15 @@
         <v>125</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61">
         <v>168</v>
       </c>
       <c r="E61">
-        <v>172</v>
-      </c>
-      <c r="F61">
+        <v>169</v>
+      </c>
+      <c r="F61" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2805,14 +2819,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>126</v>
+      </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
       </c>
       <c r="D62">
-        <v>173</v>
+        <v>170</v>
+      </c>
+      <c r="E62">
+        <v>174</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="D63">
+        <v>175</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" t="s">
         <v>9</v>
       </c>
     </row>
